--- a/2020.21_RRU.xlsx
+++ b/2020.21_RRU.xlsx
@@ -54523,14 +54523,14 @@
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_Flow_SignoffStatus xmlns="a2d4d7f5-8d4f-4a27-8476-728e0fe10b50" xsi:nil="true"/>
-    <_dlc_DocId xmlns="7e1892ae-fd09-495d-8d62-eb752b86c4b1">53N6YZJ54D32-1111469682-822873</_dlc_DocId>
+    <_dlc_DocId xmlns="7e1892ae-fd09-495d-8d62-eb752b86c4b1">53N6YZJ54D32-1111469682-868548</_dlc_DocId>
     <TaxCatchAll xmlns="7e1892ae-fd09-495d-8d62-eb752b86c4b1" xsi:nil="true"/>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="a2d4d7f5-8d4f-4a27-8476-728e0fe10b50">
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     </lcf76f155ced4ddcb4097134ff3c332f>
     <_dlc_DocIdUrl xmlns="7e1892ae-fd09-495d-8d62-eb752b86c4b1">
-      <Url>https://imadis.sharepoint.com/sites/Intranet/_layouts/15/DocIdRedir.aspx?ID=53N6YZJ54D32-1111469682-822873</Url>
-      <Description>53N6YZJ54D32-1111469682-822873</Description>
+      <Url>https://imadis.sharepoint.com/sites/Intranet/_layouts/15/DocIdRedir.aspx?ID=53N6YZJ54D32-1111469682-868548</Url>
+      <Description>53N6YZJ54D32-1111469682-868548</Description>
     </_dlc_DocIdUrl>
   </documentManagement>
 </p:properties>
